--- a/biology/Zoologie/Gibbon_à_favoris_blancs_du_Nord/Gibbon_à_favoris_blancs_du_Nord.xlsx
+++ b/biology/Zoologie/Gibbon_à_favoris_blancs_du_Nord/Gibbon_à_favoris_blancs_du_Nord.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gibbon_%C3%A0_favoris_blancs_du_Nord</t>
+          <t>Gibbon_à_favoris_blancs_du_Nord</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nomascus leucogenys · Gibbon à joues pâles, Gibbon à joues blanches
-Le gibbon à favoris blancs du Nord (Nomascus leucogenys), appelé aussi gibbon à joues pâles[1] ou gibbon à joues blanches[1] est une espèce de singes hominoïdes de la famille des hylobatidés. Cette espèce est classée en danger critique d'extinction par l'UICN.
+Le gibbon à favoris blancs du Nord (Nomascus leucogenys), appelé aussi gibbon à joues pâles ou gibbon à joues blanches est une espèce de singes hominoïdes de la famille des hylobatidés. Cette espèce est classée en danger critique d'extinction par l'UICN.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gibbon_%C3%A0_favoris_blancs_du_Nord</t>
+          <t>Gibbon_à_favoris_blancs_du_Nord</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les petits naissent tous beiges, ils deviennent noirs avec des joues blanches à l'âge de 2 ans. Les mâles ne changent plus de couleur tandis que les femelles redeviennent beiges à la maturité sexuelle. Comme tous les gibbons, ils n'ont pas de queue. Les deux sexes pèsent environ 5,7 kg avec une taille allant de 45 à 63 cm[2] (tête et corps, jambes non incluses). Ses bras sont plus longs que ses jambes.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les petits naissent tous beiges, ils deviennent noirs avec des joues blanches à l'âge de 2 ans. Les mâles ne changent plus de couleur tandis que les femelles redeviennent beiges à la maturité sexuelle. Comme tous les gibbons, ils n'ont pas de queue. Les deux sexes pèsent environ 5,7 kg avec une taille allant de 45 à 63 cm (tête et corps, jambes non incluses). Ses bras sont plus longs que ses jambes.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gibbon_%C3%A0_favoris_blancs_du_Nord</t>
+          <t>Gibbon_à_favoris_blancs_du_Nord</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente au Viet Nam, au Laos et en Chine[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente au Viet Nam, au Laos et en Chine.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gibbon_%C3%A0_favoris_blancs_du_Nord</t>
+          <t>Gibbon_à_favoris_blancs_du_Nord</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est arboricole, elle se déplace en se balançant de branche en branche (brachiation). Les individus vivent en petites familles composées d'un couple monogame et de leurs enfants (souvent 3 ou 4). La famille est organisée hiérarchiquement. La femelle adulte est dominante, suivent les femelles juvéniles, puis les mâles juvéniles et enfin le mâle adulte[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est arboricole, elle se déplace en se balançant de branche en branche (brachiation). Les individus vivent en petites familles composées d'un couple monogame et de leurs enfants (souvent 3 ou 4). La famille est organisée hiérarchiquement. La femelle adulte est dominante, suivent les femelles juvéniles, puis les mâles juvéniles et enfin le mâle adulte.
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gibbon_%C3%A0_favoris_blancs_du_Nord</t>
+          <t>Gibbon_à_favoris_blancs_du_Nord</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le gibbon à joues pâles est principalement frugivore. Il se nourrit aussi de feuilles, de fleurs et d'insectes[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le gibbon à joues pâles est principalement frugivore. Il se nourrit aussi de feuilles, de fleurs et d'insectes.
 </t>
         </is>
       </c>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gibbon_%C3%A0_favoris_blancs_du_Nord</t>
+          <t>Gibbon_à_favoris_blancs_du_Nord</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,9 +656,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme tous les gibbons, cette espèce est monogame. La maturité sexuelle est atteinte entre 6 et 7 ans. Le cycle menstruel de la femelle est d'environ 28 jours. Il n'y a pas de saison de reproduction, les partenaires s'accouplent toute l'année. La période de gestation est de 7 mois. Le petit est élevé par ses deux parents. Le petit est étroitement dépendant de sa mère les dix-huit premiers mois[4]. La longévité de ce grand singe est d'environ 28 ans[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme tous les gibbons, cette espèce est monogame. La maturité sexuelle est atteinte entre 6 et 7 ans. Le cycle menstruel de la femelle est d'environ 28 jours. Il n'y a pas de saison de reproduction, les partenaires s'accouplent toute l'année. La période de gestation est de 7 mois. Le petit est élevé par ses deux parents. Le petit est étroitement dépendant de sa mère les dix-huit premiers mois. La longévité de ce grand singe est d'environ 28 ans.
 </t>
         </is>
       </c>
@@ -649,7 +671,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Gibbon_%C3%A0_favoris_blancs_du_Nord</t>
+          <t>Gibbon_à_favoris_blancs_du_Nord</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -667,9 +689,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>La classification des primates évoluant, cette espèce a pour synonyme valide, dans certaines classifications[5] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La classification des primates évoluant, cette espèce a pour synonyme valide, dans certaines classifications :
 Hylobates leucogenys Ogilby, 1840</t>
         </is>
       </c>
